--- a/team_specific_matrix/Kansas City_A.xlsx
+++ b/team_specific_matrix/Kansas City_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2289719626168224</v>
+        <v>0.2392857142857143</v>
       </c>
       <c r="C2">
-        <v>0.4953271028037383</v>
+        <v>0.475</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02336448598130841</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1775700934579439</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07476635514018691</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04424778761061947</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03539823008849557</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7964601769911505</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1238938053097345</v>
+        <v>0.1357142857142857</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1363636363636364</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5909090909090909</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2727272727272727</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06</v>
+        <v>0.05668016194331984</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08</v>
+        <v>0.08502024291497975</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.22</v>
+        <v>0.2348178137651822</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03</v>
+        <v>0.02834008097165992</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.135</v>
+        <v>0.1417004048582996</v>
       </c>
       <c r="R6">
-        <v>0.11</v>
+        <v>0.1012145748987854</v>
       </c>
       <c r="S6">
-        <v>0.365</v>
+        <v>0.3441295546558704</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07453416149068323</v>
+        <v>0.0995260663507109</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02484472049689441</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="E7">
-        <v>0.006211180124223602</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="F7">
-        <v>0.1304347826086956</v>
+        <v>0.1232227488151659</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1614906832298137</v>
+        <v>0.1421800947867299</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02484472049689441</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1490683229813665</v>
+        <v>0.1611374407582938</v>
       </c>
       <c r="R7">
-        <v>0.08074534161490683</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="S7">
-        <v>0.3478260869565217</v>
+        <v>0.3412322274881517</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08955223880597014</v>
+        <v>0.08905852417302799</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01492537313432836</v>
+        <v>0.01272264631043257</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08656716417910448</v>
+        <v>0.08651399491094147</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1134328358208955</v>
+        <v>0.1119592875318066</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01791044776119403</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1671641791044776</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="R8">
-        <v>0.09552238805970149</v>
+        <v>0.0916030534351145</v>
       </c>
       <c r="S8">
-        <v>0.4149253731343284</v>
+        <v>0.4173027989821883</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09243697478991597</v>
+        <v>0.0915032679738562</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008403361344537815</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05882352941176471</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.134453781512605</v>
+        <v>0.130718954248366</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.05042016806722689</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1680672268907563</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="R9">
-        <v>0.134453781512605</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="S9">
-        <v>0.3529411764705883</v>
+        <v>0.3856209150326798</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1059322033898305</v>
+        <v>0.1077943615257048</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01271186440677966</v>
+        <v>0.01741293532338309</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07203389830508475</v>
+        <v>0.07048092868988391</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1175847457627119</v>
+        <v>0.1268656716417911</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02436440677966102</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1917372881355932</v>
+        <v>0.1956882255389718</v>
       </c>
       <c r="R10">
-        <v>0.09957627118644068</v>
+        <v>0.09286898839137644</v>
       </c>
       <c r="S10">
-        <v>0.3760593220338983</v>
+        <v>0.3665008291873963</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1417624521072797</v>
+        <v>0.1385542168674699</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08045977011494253</v>
+        <v>0.08132530120481928</v>
       </c>
       <c r="K11">
-        <v>0.1609195402298851</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L11">
-        <v>0.5977011494252874</v>
+        <v>0.5963855421686747</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01915708812260536</v>
+        <v>0.01506024096385542</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6794871794871795</v>
+        <v>0.6834170854271356</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2692307692307692</v>
+        <v>0.2613065326633166</v>
       </c>
       <c r="K12">
-        <v>0.01282051282051282</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="L12">
-        <v>0.01923076923076923</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01923076923076923</v>
+        <v>0.02512562814070352</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5714285714285714</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4047619047619048</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02380952380952381</v>
+        <v>0.03773584905660377</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02259887005649718</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1694915254237288</v>
+        <v>0.1725663716814159</v>
       </c>
       <c r="I15">
-        <v>0.02259887005649718</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="J15">
-        <v>0.2937853107344633</v>
+        <v>0.3008849557522124</v>
       </c>
       <c r="K15">
-        <v>0.1299435028248588</v>
+        <v>0.1238938053097345</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03389830508474576</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07909604519774012</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2485875706214689</v>
+        <v>0.247787610619469</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03597122302158273</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1151079136690648</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="I16">
-        <v>0.05035971223021583</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="J16">
-        <v>0.4316546762589928</v>
+        <v>0.445054945054945</v>
       </c>
       <c r="K16">
-        <v>0.1294964028776978</v>
+        <v>0.1318681318681319</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01438848920863309</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05035971223021583</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1726618705035971</v>
+        <v>0.1373626373626374</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01592356687898089</v>
+        <v>0.01745635910224439</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1974522292993631</v>
+        <v>0.1820448877805486</v>
       </c>
       <c r="I17">
-        <v>0.07961783439490445</v>
+        <v>0.08728179551122195</v>
       </c>
       <c r="J17">
-        <v>0.3885350318471338</v>
+        <v>0.3915211970074813</v>
       </c>
       <c r="K17">
-        <v>0.1210191082802548</v>
+        <v>0.1271820448877805</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02866242038216561</v>
+        <v>0.02743142144638404</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05732484076433121</v>
+        <v>0.06234413965087282</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1114649681528662</v>
+        <v>0.1047381546134663</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2033898305084746</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="I18">
-        <v>0.0847457627118644</v>
+        <v>0.08962264150943396</v>
       </c>
       <c r="J18">
-        <v>0.3785310734463277</v>
+        <v>0.4009433962264151</v>
       </c>
       <c r="K18">
-        <v>0.1016949152542373</v>
+        <v>0.09905660377358491</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03389830508474576</v>
+        <v>0.0330188679245283</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0847457627118644</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1129943502824859</v>
+        <v>0.1132075471698113</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01931330472103004</v>
+        <v>0.01909722222222222</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2081545064377682</v>
+        <v>0.1961805555555556</v>
       </c>
       <c r="I19">
-        <v>0.07081545064377683</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="J19">
-        <v>0.3551502145922747</v>
+        <v>0.3628472222222222</v>
       </c>
       <c r="K19">
-        <v>0.1244635193133047</v>
+        <v>0.1258680555555556</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02145922746781116</v>
+        <v>0.0234375</v>
       </c>
       <c r="N19">
-        <v>0.002145922746781116</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="O19">
-        <v>0.06759656652360516</v>
+        <v>0.07118055555555555</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1309012875536481</v>
+        <v>0.1284722222222222</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Kansas City_A.xlsx
+++ b/team_specific_matrix/Kansas City_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2392857142857143</v>
+        <v>0.228476821192053</v>
       </c>
       <c r="C2">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01785714285714286</v>
+        <v>0.01655629139072848</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1928571428571429</v>
+        <v>0.1821192052980132</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.075</v>
+        <v>0.0728476821192053</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03571428571428571</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04285714285714286</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7857142857142857</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1357142857142857</v>
+        <v>0.1320754716981132</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1470588235294118</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6176470588235294</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2352941176470588</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05668016194331984</v>
+        <v>0.0599250936329588</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008097165991902834</v>
+        <v>0.00749063670411985</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08502024291497975</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2348178137651822</v>
+        <v>0.2359550561797753</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02834008097165992</v>
+        <v>0.02621722846441948</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1417004048582996</v>
+        <v>0.1385767790262172</v>
       </c>
       <c r="R6">
-        <v>0.1012145748987854</v>
+        <v>0.09737827715355805</v>
       </c>
       <c r="S6">
-        <v>0.3441295546558704</v>
+        <v>0.3445692883895131</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0995260663507109</v>
+        <v>0.1013215859030837</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01895734597156398</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="E7">
-        <v>0.004739336492890996</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="F7">
-        <v>0.1232227488151659</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1421800947867299</v>
+        <v>0.1497797356828194</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02369668246445497</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1611374407582938</v>
+        <v>0.1718061674008811</v>
       </c>
       <c r="R7">
-        <v>0.08530805687203792</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="S7">
-        <v>0.3412322274881517</v>
+        <v>0.3348017621145374</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08905852417302799</v>
+        <v>0.09200968523002422</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01272264631043257</v>
+        <v>0.01210653753026634</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08651399491094147</v>
+        <v>0.08716707021791767</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1119592875318066</v>
+        <v>0.1089588377723971</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02290076335877863</v>
+        <v>0.02179176755447942</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1679389312977099</v>
+        <v>0.1646489104116223</v>
       </c>
       <c r="R8">
-        <v>0.0916030534351145</v>
+        <v>0.08958837772397095</v>
       </c>
       <c r="S8">
-        <v>0.4173027989821883</v>
+        <v>0.423728813559322</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0915032679738562</v>
+        <v>0.09036144578313253</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0130718954248366</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0457516339869281</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.130718954248366</v>
+        <v>0.1265060240963855</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0392156862745098</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1568627450980392</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="R9">
-        <v>0.1372549019607843</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="S9">
-        <v>0.3856209150326798</v>
+        <v>0.3915662650602409</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1077943615257048</v>
+        <v>0.1085450346420323</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01741293532338309</v>
+        <v>0.01770592763664357</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07048092868988391</v>
+        <v>0.07082371054657428</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1268656716417911</v>
+        <v>0.1293302540415704</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02238805970149254</v>
+        <v>0.0207852193995381</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1956882255389718</v>
+        <v>0.2001539645881447</v>
       </c>
       <c r="R10">
-        <v>0.09286898839137644</v>
+        <v>0.09083910700538876</v>
       </c>
       <c r="S10">
-        <v>0.3665008291873963</v>
+        <v>0.3618167821401078</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1385542168674699</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08132530120481928</v>
+        <v>0.09016393442622951</v>
       </c>
       <c r="K11">
-        <v>0.1686746987951807</v>
+        <v>0.1775956284153005</v>
       </c>
       <c r="L11">
-        <v>0.5963855421686747</v>
+        <v>0.5819672131147541</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01506024096385542</v>
+        <v>0.01912568306010929</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6834170854271356</v>
+        <v>0.6866359447004609</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2613065326633166</v>
+        <v>0.2488479262672811</v>
       </c>
       <c r="K12">
-        <v>0.01005025125628141</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="L12">
-        <v>0.02010050251256281</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02512562814070352</v>
+        <v>0.02304147465437788</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6415094339622641</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3207547169811321</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03773584905660377</v>
+        <v>0.03636363636363636</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03097345132743363</v>
+        <v>0.03375527426160337</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1725663716814159</v>
+        <v>0.1687763713080169</v>
       </c>
       <c r="I15">
-        <v>0.02654867256637168</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="J15">
-        <v>0.3008849557522124</v>
+        <v>0.29957805907173</v>
       </c>
       <c r="K15">
-        <v>0.1238938053097345</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02654867256637168</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07079646017699115</v>
+        <v>0.06751054852320675</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.247787610619469</v>
+        <v>0.2531645569620253</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03846153846153846</v>
+        <v>0.03980099502487562</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1098901098901099</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="I16">
-        <v>0.06043956043956044</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="J16">
-        <v>0.445054945054945</v>
+        <v>0.4577114427860697</v>
       </c>
       <c r="K16">
-        <v>0.1318681318681319</v>
+        <v>0.1243781094527363</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01648351648351648</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06043956043956044</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1373626373626374</v>
+        <v>0.1442786069651741</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01745635910224439</v>
+        <v>0.01605504587155963</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1820448877805486</v>
+        <v>0.1720183486238532</v>
       </c>
       <c r="I17">
-        <v>0.08728179551122195</v>
+        <v>0.08944954128440367</v>
       </c>
       <c r="J17">
-        <v>0.3915211970074813</v>
+        <v>0.4036697247706422</v>
       </c>
       <c r="K17">
-        <v>0.1271820448877805</v>
+        <v>0.1238532110091743</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02743142144638404</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002293577981651376</v>
       </c>
       <c r="O17">
-        <v>0.06234413965087282</v>
+        <v>0.06192660550458716</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1047381546134663</v>
+        <v>0.1032110091743119</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1886792452830189</v>
+        <v>0.1809954751131222</v>
       </c>
       <c r="I18">
-        <v>0.08962264150943396</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="J18">
-        <v>0.4009433962264151</v>
+        <v>0.3936651583710407</v>
       </c>
       <c r="K18">
-        <v>0.09905660377358491</v>
+        <v>0.1085972850678733</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0330188679245283</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07547169811320754</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1132075471698113</v>
+        <v>0.1131221719457014</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01909722222222222</v>
+        <v>0.01866883116883117</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1961805555555556</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="I19">
-        <v>0.06944444444444445</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J19">
-        <v>0.3628472222222222</v>
+        <v>0.3603896103896104</v>
       </c>
       <c r="K19">
-        <v>0.1258680555555556</v>
+        <v>0.1290584415584416</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0234375</v>
+        <v>0.02353896103896104</v>
       </c>
       <c r="N19">
-        <v>0.003472222222222222</v>
+        <v>0.003246753246753247</v>
       </c>
       <c r="O19">
-        <v>0.07118055555555555</v>
+        <v>0.07061688311688312</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1284722222222222</v>
+        <v>0.1266233766233766</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Kansas City_A.xlsx
+++ b/team_specific_matrix/Kansas City_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.228476821192053</v>
+        <v>0.2233009708737864</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.511326860841424</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01655629139072848</v>
+        <v>0.01618122977346278</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1821192052980132</v>
+        <v>0.1779935275080906</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0728476821192053</v>
+        <v>0.07119741100323625</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03773584905660377</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03773584905660377</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7924528301886793</v>
+        <v>0.7891566265060241</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1320754716981132</v>
+        <v>0.1385542168674699</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1388888888888889</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6388888888888888</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2222222222222222</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0599250936329588</v>
+        <v>0.05734767025089606</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00749063670411985</v>
+        <v>0.007168458781362007</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0898876404494382</v>
+        <v>0.08960573476702509</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2359550561797753</v>
+        <v>0.2437275985663082</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02621722846441948</v>
+        <v>0.02508960573476703</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1385767790262172</v>
+        <v>0.1397849462365591</v>
       </c>
       <c r="R6">
-        <v>0.09737827715355805</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="S6">
-        <v>0.3445692883895131</v>
+        <v>0.3405017921146953</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1013215859030837</v>
+        <v>0.09913793103448276</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01762114537444934</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E7">
-        <v>0.004405286343612335</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="F7">
-        <v>0.1145374449339207</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1497797356828194</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02202643171806168</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1718061674008811</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="R7">
-        <v>0.08370044052863436</v>
+        <v>0.08189655172413793</v>
       </c>
       <c r="S7">
-        <v>0.3348017621145374</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09200968523002422</v>
+        <v>0.0947867298578199</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01210653753026634</v>
+        <v>0.01184834123222749</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08716707021791767</v>
+        <v>0.08767772511848342</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1089588377723971</v>
+        <v>0.1066350710900474</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02179176755447942</v>
+        <v>0.02132701421800948</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1646489104116223</v>
+        <v>0.1682464454976303</v>
       </c>
       <c r="R8">
-        <v>0.08958837772397095</v>
+        <v>0.09004739336492891</v>
       </c>
       <c r="S8">
-        <v>0.423728813559322</v>
+        <v>0.4194312796208531</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09036144578313253</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01204819277108434</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05421686746987952</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1265060240963855</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03614457831325301</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1566265060240964</v>
+        <v>0.1609195402298851</v>
       </c>
       <c r="R9">
-        <v>0.1325301204819277</v>
+        <v>0.1264367816091954</v>
       </c>
       <c r="S9">
-        <v>0.3915662650602409</v>
+        <v>0.3908045977011494</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1085450346420323</v>
+        <v>0.1060830860534125</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01770592763664357</v>
+        <v>0.01780415430267062</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07082371054657428</v>
+        <v>0.0712166172106825</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1293302540415704</v>
+        <v>0.1305637982195846</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0207852193995381</v>
+        <v>0.02225519287833828</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2001539645881447</v>
+        <v>0.2010385756676558</v>
       </c>
       <c r="R10">
-        <v>0.09083910700538876</v>
+        <v>0.09050445103857567</v>
       </c>
       <c r="S10">
-        <v>0.3618167821401078</v>
+        <v>0.3605341246290801</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1311475409836066</v>
+        <v>0.1313672922252011</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09016393442622951</v>
+        <v>0.08847184986595175</v>
       </c>
       <c r="K11">
-        <v>0.1775956284153005</v>
+        <v>0.1769436997319035</v>
       </c>
       <c r="L11">
-        <v>0.5819672131147541</v>
+        <v>0.5844504021447721</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01912568306010929</v>
+        <v>0.01876675603217158</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6866359447004609</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2488479262672811</v>
+        <v>0.2477477477477477</v>
       </c>
       <c r="K12">
-        <v>0.009216589861751152</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="L12">
-        <v>0.03225806451612903</v>
+        <v>0.03153153153153153</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02304147465437788</v>
+        <v>0.02252252252252252</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6545454545454545</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3090909090909091</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03636363636363636</v>
+        <v>0.05357142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03375527426160337</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1687763713080169</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0.02531645569620253</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="J15">
-        <v>0.29957805907173</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="K15">
-        <v>0.1265822784810127</v>
+        <v>0.1260162601626016</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02531645569620253</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06751054852320675</v>
+        <v>0.07723577235772358</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2531645569620253</v>
+        <v>0.2520325203252032</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03980099502487562</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1044776119402985</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="I16">
-        <v>0.05970149253731343</v>
+        <v>0.06280193236714976</v>
       </c>
       <c r="J16">
-        <v>0.4577114427860697</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="K16">
-        <v>0.1243781094527363</v>
+        <v>0.1207729468599034</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01492537313432836</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05472636815920398</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1442786069651741</v>
+        <v>0.1400966183574879</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01605504587155963</v>
+        <v>0.01758241758241758</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1720183486238532</v>
+        <v>0.167032967032967</v>
       </c>
       <c r="I17">
-        <v>0.08944954128440367</v>
+        <v>0.09010989010989011</v>
       </c>
       <c r="J17">
-        <v>0.4036697247706422</v>
+        <v>0.4087912087912088</v>
       </c>
       <c r="K17">
-        <v>0.1238532110091743</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02752293577981652</v>
+        <v>0.02637362637362637</v>
       </c>
       <c r="N17">
-        <v>0.002293577981651376</v>
+        <v>0.002197802197802198</v>
       </c>
       <c r="O17">
-        <v>0.06192660550458716</v>
+        <v>0.05934065934065934</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1032110091743119</v>
+        <v>0.1054945054945055</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009049773755656109</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1809954751131222</v>
+        <v>0.1806167400881057</v>
       </c>
       <c r="I18">
-        <v>0.08597285067873303</v>
+        <v>0.0881057268722467</v>
       </c>
       <c r="J18">
-        <v>0.3936651583710407</v>
+        <v>0.3964757709251101</v>
       </c>
       <c r="K18">
-        <v>0.1085972850678733</v>
+        <v>0.1101321585903084</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03167420814479638</v>
+        <v>0.03083700440528634</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07692307692307693</v>
+        <v>0.07488986784140969</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1131221719457014</v>
+        <v>0.1101321585903084</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01866883116883117</v>
+        <v>0.02048857368006304</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1964285714285714</v>
+        <v>0.1954294720252167</v>
       </c>
       <c r="I19">
-        <v>0.07142857142857142</v>
+        <v>0.07171000788022065</v>
       </c>
       <c r="J19">
-        <v>0.3603896103896104</v>
+        <v>0.3640661938534279</v>
       </c>
       <c r="K19">
-        <v>0.1290584415584416</v>
+        <v>0.1268715524034673</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02353896103896104</v>
+        <v>0.02364066193853428</v>
       </c>
       <c r="N19">
-        <v>0.003246753246753247</v>
+        <v>0.003152088258471237</v>
       </c>
       <c r="O19">
-        <v>0.07061688311688312</v>
+        <v>0.07013396375098503</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1266233766233766</v>
+        <v>0.1245074862096139</v>
       </c>
     </row>
   </sheetData>
